--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1959.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1959.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.061098269088444</v>
+        <v>1.099494457244873</v>
       </c>
       <c r="B1">
-        <v>1.481742901960485</v>
+        <v>2.123276472091675</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>9.267221450805664</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.412626504898071</v>
       </c>
       <c r="E1">
-        <v>1.261306887346129</v>
+        <v>1.295566916465759</v>
       </c>
     </row>
   </sheetData>
